--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,80 +1,243 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Let's_fall_in_love\program\tools\LoadExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B0175-A60D-4B40-9612-44D861CC5FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test2_001" sheetId="1" r:id="rId1"/>
     <sheet name="test2_002" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>miles</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>miles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+本行为字段名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>miles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+本行为字段在TS中的数据类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>miles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+本行为字段在C#中的数据类型</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>miles</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>miles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+本行为字段名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>miles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+本行为字段在TS中的数据类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>miles:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+本行为字段在C#中的数据类型</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>NameID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestType</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ItemCount</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>boolean[]</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>bool[]</t>
   </si>
   <si>
     <t>第几天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>签到名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>道具ID</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
   <si>
     <t>倍率(百分位)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第1天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;0;0;</t>
   </si>
   <si>
     <t>第2天</t>
   </si>
   <si>
+    <t>1;0;1</t>
+  </si>
+  <si>
     <t>第3天</t>
   </si>
   <si>
@@ -88,73 +251,23 @@
   </si>
   <si>
     <t>第7天</t>
-  </si>
-  <si>
-    <t>QuestType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20;20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50;60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60;70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70;80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120;130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210;220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -162,19 +275,355 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -182,9 +631,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -192,21 +883,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -255,7 +990,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +1025,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,106 +1199,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F13" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="8.875" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
@@ -572,15 +1326,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -594,13 +1349,14 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -612,15 +1368,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -632,15 +1389,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -652,15 +1410,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -672,15 +1431,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -692,107 +1452,134 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5B7389-3E2E-4CD8-9D5C-19963A064A31}">
-  <dimension ref="A2:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="8.875" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
@@ -801,15 +1588,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -823,13 +1611,14 @@
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="I6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -841,15 +1630,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -861,15 +1651,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -881,15 +1672,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -901,15 +1693,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -921,12 +1714,14 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>